--- a/project/excel/thing_description_schema.xlsx
+++ b/project/excel/thing_description_schema.xlsx
@@ -7,9 +7,19 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="NamedThing" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Thing" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="ThingCollection" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="VersionInfo" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="MultiLanguage" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Link" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="ExpectedResponse" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="AdditionalExpectedResponse" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Form" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="SecurityScheme" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="DataSchema" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="InteractionAffordance" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="PropertyAffordance" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="ActionAffordance" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="EventAffordance" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="Thing" sheetId="13" state="visible" r:id="rId13"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -415,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -426,17 +436,12 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>id</t>
+          <t>instance</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>description</t>
+          <t>model</t>
         </is>
       </c>
     </row>
@@ -445,7 +450,432 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:M1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>observable</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>titleInLanguage</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>descriptionInLanguage</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>propertyName</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>writeOnly</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>readonly</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>titles</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>descriptions</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>uriVariables</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>forms</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>safe</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>synchronous</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>idempotent</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>input</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>output</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>titles</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>descriptions</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>titleInLanguage</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>descriptionInLanguage</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>uriVariables</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>forms</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:M1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>subscription</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>cancellation</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>notification</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>notificationResponse</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>titles</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>descriptions</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>titleInLanguage</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>descriptionInLanguage</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>uriVariables</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>forms</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:W1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>titles</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>descriptions</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>@type</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>titleInLanguage</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>descriptionInLanguage</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>securityDefinitions</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>security</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>schemaDefinitions</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>profile</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>instance</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>created</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>modified</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>supportContact</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>base</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>version</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>forms</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>links</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>properties</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>actions</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>events</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>key</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -462,51 +892,46 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>primary_email</t>
+          <t>target</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>birth_date</t>
+          <t>hintsAtMediaType</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>age_in_years</t>
+          <t>type</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>vital_status</t>
+          <t>relation</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>id</t>
+          <t>anchor</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>name</t>
+          <t>sizes</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>description</t>
+          <t>hreflang</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation sqref="D2:D1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
-      <formula1>"ALIVE,DEAD,UNKNOWN"</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -523,7 +948,292 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>entries</t>
+          <t>contentType</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>additionalOutputSchema</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>schema</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>contentType</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>target</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>href</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>contentType</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>contentCoding</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>securityDefinitions</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>scopes</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>returns</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>additionalReturns</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>subprotocol</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>operationType</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>@type</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>descriptions</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>proxy</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>scheme</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation sqref="E2:E1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"nosec,combo,basic,digest,bearer,psk,oauth2,apikey,auto"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>titleInLanguage</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>descriptionInLanguage</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>propertyName</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>writeOnly</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>readonly</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>titles</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>descriptions</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>titleInLanguage</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>descriptionInLanguage</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>uriVariables</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>forms</t>
         </is>
       </c>
     </row>
